--- a/upload/Faculty.xlsx
+++ b/upload/Faculty.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WEB DEV\OELP\Sample Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF41A53-52C1-450C-B603-AA379E253A7F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E2D37F-44D1-4A1E-8728-B49544D582E3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="1716" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Name</t>
   </si>
@@ -108,6 +108,30 @@
   </si>
   <si>
     <t>course0</t>
+  </si>
+  <si>
+    <t>Himanshu</t>
+  </si>
+  <si>
+    <t>102001011@smail.iitpkd.ac.in</t>
+  </si>
+  <si>
+    <t>course11</t>
+  </si>
+  <si>
+    <t>course12</t>
+  </si>
+  <si>
+    <t>course13</t>
+  </si>
+  <si>
+    <t>Prathamesh Student</t>
+  </si>
+  <si>
+    <t>102001012@smail.iitpkd.ac.in</t>
+  </si>
+  <si>
+    <t>course00</t>
   </si>
 </sst>
 </file>
@@ -442,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,7 +507,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B12" si="0">_xlfn.CONCAT(A3, "@gmail.com")</f>
+        <f t="shared" ref="B3:B11" si="0">_xlfn.CONCAT(A3, "@gmail.com")</f>
         <v>faculty2@gmail.com</v>
       </c>
       <c r="C3" t="s">
@@ -595,12 +619,58 @@
       </c>
       <c r="C12" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B12" r:id="rId1" xr:uid="{F630C43D-316B-4CC2-9AAA-9EAA804C76E3}"/>
+    <hyperlink ref="B13" r:id="rId2" xr:uid="{EC452EB0-47E7-43B5-BBB9-2DFB54CE658B}"/>
+    <hyperlink ref="B16" r:id="rId3" xr:uid="{7C3460E7-EDDB-4C84-B082-67845E38BF80}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/upload/Faculty.xlsx
+++ b/upload/Faculty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WEB DEV\OELP\Sample Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E2D37F-44D1-4A1E-8728-B49544D582E3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29B520D-1CC8-4983-ABF2-DD1A4F90F560}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>Name</t>
   </si>
@@ -123,15 +123,6 @@
   </si>
   <si>
     <t>course13</t>
-  </si>
-  <si>
-    <t>Prathamesh Student</t>
-  </si>
-  <si>
-    <t>102001012@smail.iitpkd.ac.in</t>
-  </si>
-  <si>
-    <t>course00</t>
   </si>
 </sst>
 </file>
@@ -469,7 +460,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -655,22 +646,13 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
+      <c r="B16" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B12" r:id="rId1" xr:uid="{F630C43D-316B-4CC2-9AAA-9EAA804C76E3}"/>
     <hyperlink ref="B13" r:id="rId2" xr:uid="{EC452EB0-47E7-43B5-BBB9-2DFB54CE658B}"/>
-    <hyperlink ref="B16" r:id="rId3" xr:uid="{7C3460E7-EDDB-4C84-B082-67845E38BF80}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/upload/Faculty.xlsx
+++ b/upload/Faculty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WEB DEV\OELP\Sample Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29B520D-1CC8-4983-ABF2-DD1A4F90F560}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9143CE88-1708-4671-96CB-47D0D8315D43}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
@@ -123,6 +123,21 @@
   </si>
   <si>
     <t>course13</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>CSE</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>EE</t>
   </si>
 </sst>
 </file>
@@ -457,20 +472,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
     <col min="2" max="2" width="30.77734375" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -480,8 +496,11 @@
       <c r="C1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -492,8 +511,11 @@
       <c r="C2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -504,8 +526,11 @@
       <c r="C3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -516,8 +541,11 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -528,8 +556,11 @@
       <c r="C5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -540,8 +571,11 @@
       <c r="C6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -552,8 +586,11 @@
       <c r="C7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -564,8 +601,11 @@
       <c r="C8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -576,8 +616,11 @@
       <c r="C9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -588,8 +631,11 @@
       <c r="C10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -600,8 +646,11 @@
       <c r="C11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -611,8 +660,11 @@
       <c r="C12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -622,8 +674,11 @@
       <c r="C13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -633,8 +688,11 @@
       <c r="C14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -644,8 +702,11 @@
       <c r="C15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
     </row>
   </sheetData>

--- a/upload/Faculty.xlsx
+++ b/upload/Faculty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WEB DEV\OELP\Sample Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9143CE88-1708-4671-96CB-47D0D8315D43}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EB5DAE-441C-443C-8D41-2AA48415969B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -675,7 +675,7 @@
         <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">

--- a/upload/Faculty.xlsx
+++ b/upload/Faculty.xlsx
@@ -1,36 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WEB DEV\OELP\Sample Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\TA_Allocation_OELP\data files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EB5DAE-441C-443C-8D41-2AA48415969B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8C6AF5-C229-4BCE-9268-B9BA2594823B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="78">
   <si>
     <t>Name</t>
   </si>
@@ -38,6 +33,12 @@
     <t>Email</t>
   </si>
   <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
     <t>faculty1</t>
   </si>
   <si>
@@ -68,7 +69,97 @@
     <t>faculty10</t>
   </si>
   <si>
-    <t>Course</t>
+    <t>faculty11</t>
+  </si>
+  <si>
+    <t>faculty12</t>
+  </si>
+  <si>
+    <t>faculty13</t>
+  </si>
+  <si>
+    <t>faculty14</t>
+  </si>
+  <si>
+    <t>faculty15</t>
+  </si>
+  <si>
+    <t>faculty16</t>
+  </si>
+  <si>
+    <t>faculty17</t>
+  </si>
+  <si>
+    <t>faculty18</t>
+  </si>
+  <si>
+    <t>faculty19</t>
+  </si>
+  <si>
+    <t>Prathamesh</t>
+  </si>
+  <si>
+    <t>Himanshu</t>
+  </si>
+  <si>
+    <t>112001001@smail.iitpkd.ac.in</t>
+  </si>
+  <si>
+    <t>112001002@smail.iitpkd.ac.in</t>
+  </si>
+  <si>
+    <t>112001003@smail.iitpkd.ac.in</t>
+  </si>
+  <si>
+    <t>112001004@smail.iitpkd.ac.in</t>
+  </si>
+  <si>
+    <t>112001005@smail.iitpkd.ac.in</t>
+  </si>
+  <si>
+    <t>112001006@smail.iitpkd.ac.in</t>
+  </si>
+  <si>
+    <t>112001007@smail.iitpkd.ac.in</t>
+  </si>
+  <si>
+    <t>112001008@smail.iitpkd.ac.in</t>
+  </si>
+  <si>
+    <t>11200100@smail.iitpkd.ac.in</t>
+  </si>
+  <si>
+    <t>11200102@smail.iitpkd.ac.in</t>
+  </si>
+  <si>
+    <t>1120010@smail.iitpkd.ac.in</t>
+  </si>
+  <si>
+    <t>1001002@smail.iitpkd.ac.in</t>
+  </si>
+  <si>
+    <t>1120001@smail.iitpkd.ac.in</t>
+  </si>
+  <si>
+    <t>01002@smail.iitpkd.ac.in</t>
+  </si>
+  <si>
+    <t>1120010017@smail.iitpkd.ac.in</t>
+  </si>
+  <si>
+    <t>1120010072@smail.iitpkd.ac.in</t>
+  </si>
+  <si>
+    <t>1120010018@smail.iitpkd.ac.in</t>
+  </si>
+  <si>
+    <t>1120010082@smail.iitpkd.ac.in</t>
+  </si>
+  <si>
+    <t>1120010019@smail.iitpkd.ac.in</t>
+  </si>
+  <si>
+    <t>102001012@smail.iitpkd.ac.in</t>
   </si>
   <si>
     <t>course1</t>
@@ -101,21 +192,6 @@
     <t>course10</t>
   </si>
   <si>
-    <t>Prathamesh</t>
-  </si>
-  <si>
-    <t>prathameshjondhale100@gmail.com</t>
-  </si>
-  <si>
-    <t>course0</t>
-  </si>
-  <si>
-    <t>Himanshu</t>
-  </si>
-  <si>
-    <t>102001011@smail.iitpkd.ac.in</t>
-  </si>
-  <si>
     <t>course11</t>
   </si>
   <si>
@@ -125,7 +201,40 @@
     <t>course13</t>
   </si>
   <si>
-    <t>Department</t>
+    <t>course14</t>
+  </si>
+  <si>
+    <t>course15</t>
+  </si>
+  <si>
+    <t>course16</t>
+  </si>
+  <si>
+    <t>course17</t>
+  </si>
+  <si>
+    <t>course18</t>
+  </si>
+  <si>
+    <t>course19</t>
+  </si>
+  <si>
+    <t>course20</t>
+  </si>
+  <si>
+    <t>course21</t>
+  </si>
+  <si>
+    <t>course22</t>
+  </si>
+  <si>
+    <t>course23</t>
+  </si>
+  <si>
+    <t>course24</t>
+  </si>
+  <si>
+    <t>course25</t>
   </si>
   <si>
     <t>CSE</t>
@@ -138,13 +247,25 @@
   </si>
   <si>
     <t>EE</t>
+  </si>
+  <si>
+    <t>himanshukr033@gmail.com</t>
+  </si>
+  <si>
+    <t>kirmada</t>
+  </si>
+  <si>
+    <t>incognito.69real@gmail.com</t>
+  </si>
+  <si>
+    <t>course26</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,14 +275,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -184,16 +297,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -472,18 +583,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
-    <col min="2" max="2" width="30.77734375" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -494,227 +603,378 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="str">
-        <f>_xlfn.CONCAT(A2, "@gmail.com")</f>
-        <v>faculty1@gmail.com</v>
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="str">
-        <f t="shared" ref="B3:B11" si="0">_xlfn.CONCAT(A3, "@gmail.com")</f>
-        <v>faculty2@gmail.com</v>
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>faculty3@gmail.com</v>
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="str">
-        <f t="shared" si="0"/>
-        <v>faculty4@gmail.com</v>
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>faculty5@gmail.com</v>
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>faculty6@gmail.com</v>
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>faculty7@gmail.com</v>
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>faculty8@gmail.com</v>
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>faculty9@gmail.com</v>
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v>faculty10@gmail.com</v>
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="1"/>
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B12" r:id="rId1" xr:uid="{F630C43D-316B-4CC2-9AAA-9EAA804C76E3}"/>
-    <hyperlink ref="B13" r:id="rId2" xr:uid="{EC452EB0-47E7-43B5-BBB9-2DFB54CE658B}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>